--- a/Ms0004-30-07-OA-35-CC-MR-BS-R-done.xlsx
+++ b/Ms0004-30-07-OA-35-CC-MR-BS-R-done.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jase2188\Documents\GitHub\MetadataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8153924D-8FEA-4B7A-8125-AA40CAA7E0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14CD78-0C74-4A6B-925F-0C2F115A6820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28335" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="210" windowWidth="28350" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veri Ms0004 30 07 OA 35 CC MR B" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="682">
   <si>
     <t>FullFolderOrFilePath</t>
   </si>
@@ -2054,6 +2054,18 @@
   </si>
   <si>
     <t>Ms0004_30_07_35.pdf</t>
+  </si>
+  <si>
+    <t>personal correspondence[|]commercial correspondence</t>
+  </si>
+  <si>
+    <t>correspondencia personal[|]correspondencia comercial</t>
+  </si>
+  <si>
+    <t>manuscritos[|]anuncios</t>
+  </si>
+  <si>
+    <t>manuscripts (documents)[|]announcements</t>
   </si>
 </sst>
 </file>
@@ -2407,7 +2419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BS2" sqref="BS2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2832,16 +2846,16 @@
         <v>129</v>
       </c>
       <c r="BP2" t="s">
-        <v>130</v>
+        <v>679</v>
       </c>
       <c r="BQ2" t="s">
-        <v>131</v>
+        <v>678</v>
       </c>
       <c r="BR2" t="s">
-        <v>132</v>
+        <v>680</v>
       </c>
       <c r="BS2" t="s">
-        <v>133</v>
+        <v>681</v>
       </c>
       <c r="BT2" t="s">
         <v>134</v>
